--- a/FileManagement/333.xlsx
+++ b/FileManagement/333.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>type</t>
   </si>
@@ -28,19 +28,22 @@
     <t>remark</t>
   </si>
   <si>
-    <t>funds</t>
-  </si>
-  <si>
     <t>daily</t>
-  </si>
-  <si>
-    <t>发工资</t>
   </si>
   <si>
     <t>office</t>
   </si>
   <si>
+    <t>funds</t>
+  </si>
+  <si>
+    <t>资金</t>
+  </si>
+  <si>
     <t>salary</t>
+  </si>
+  <si>
+    <t>补贴</t>
   </si>
 </sst>
 </file>
@@ -48,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,6 +66,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -71,67 +111,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,6 +147,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -160,6 +162,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -168,39 +201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,31 +218,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,151 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,56 +409,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,8 +430,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,7 +466,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,10 +517,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,133 +529,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,126 +985,76 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A8:D16"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
   <sheetData>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B2">
+        <v>-1200</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>-1600</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>600</v>
+      </c>
+      <c r="C4" s="1">
         <v>43180</v>
       </c>
-      <c r="D9">
-        <v>123</v>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>-123</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1200</v>
+      </c>
+      <c r="C5" s="1">
         <v>43180</v>
       </c>
-      <c r="D10">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>213</v>
-      </c>
-      <c r="C11" s="1">
-        <v>43180</v>
-      </c>
-      <c r="D11">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>2100</v>
-      </c>
-      <c r="C12" s="1">
-        <v>43180</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>-1200</v>
-      </c>
-      <c r="C13" s="1">
-        <v>43152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>-1000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>43146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>890</v>
-      </c>
-      <c r="C15" s="1">
-        <v>43121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>990</v>
-      </c>
-      <c r="C16" s="1">
-        <v>43152</v>
+      <c r="D5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
